--- a/.datasets/IDEAM/CNEStationDatasetDownload.xlsx
+++ b/.datasets/IDEAM/CNEStationDatasetDownload.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.LTWB\.datasets\IDEAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253C1331-1072-44E1-B379-320CB41A8C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E75E6F-B01E-4B32-BDDD-5F04A041A863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A0568F04-DB89-4E32-835D-4141C8FDD13B}"/>
+    <workbookView xWindow="28680" yWindow="-285" windowWidth="29040" windowHeight="15720" xr2:uid="{A0568F04-DB89-4E32-835D-4141C8FDD13B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Rain" sheetId="1" r:id="rId1"/>
-    <sheet name="AirTemp" sheetId="2" r:id="rId2"/>
-    <sheet name="Evaporation" sheetId="3" r:id="rId3"/>
-    <sheet name="LevelQ" sheetId="4" r:id="rId4"/>
+    <sheet name="Precipitacion" sheetId="1" r:id="rId1"/>
+    <sheet name="TemperaturaAire" sheetId="2" r:id="rId2"/>
+    <sheet name="EvaporacionPotencial" sheetId="3" r:id="rId3"/>
+    <sheet name="Caudal" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AirTemp!$A$1:$Z$43</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Evaporation!$A$1:$Y$42</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">LevelQ!$A$1:$Y$66</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Rain!$A$1:$Y$140</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Caudal!$A$1:$Y$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">EvaporacionPotencial!$A$1:$Y$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Precipitacion!$A$1:$Y$140</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TemperaturaAire!$A$1:$Z$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4414" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4144" uniqueCount="484">
   <si>
     <t>OBJECTID</t>
   </si>
@@ -1450,51 +1450,9 @@
     <t>File</t>
   </si>
   <si>
-    <t>datos.zip</t>
-  </si>
-  <si>
-    <t>datos (1).zip</t>
-  </si>
-  <si>
-    <t>datos (2).zip</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
-    <t>datos (3).zip</t>
-  </si>
-  <si>
-    <t>datos (5).zip</t>
-  </si>
-  <si>
-    <t>datos (4).zip</t>
-  </si>
-  <si>
-    <t>datos (6).zip</t>
-  </si>
-  <si>
-    <t>datos (9).zip</t>
-  </si>
-  <si>
-    <t>datos (8).zip</t>
-  </si>
-  <si>
-    <t>datos (7).zip</t>
-  </si>
-  <si>
-    <t>datos (10).zip</t>
-  </si>
-  <si>
-    <t>datos (11).zip</t>
-  </si>
-  <si>
-    <t>datos (12).zip</t>
-  </si>
-  <si>
-    <t>datos (13).zip</t>
-  </si>
-  <si>
     <t>datos (22).zip</t>
   </si>
   <si>
@@ -1508,9 +1466,6 @@
   </si>
   <si>
     <t>datos (21).zip</t>
-  </si>
-  <si>
-    <t>datos (14).zip</t>
   </si>
   <si>
     <t>File TMaxDay</t>
@@ -1907,16 +1862,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BF7089-3989-48DA-9543-7EA7C591111E}">
   <dimension ref="A1:Y140"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -2020,12 +1975,6 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>468</v>
-      </c>
       <c r="C2" s="1">
         <v>883</v>
       </c>
@@ -2091,12 +2040,6 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>468</v>
-      </c>
       <c r="C3" s="1">
         <v>3219</v>
       </c>
@@ -2162,12 +2105,6 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>468</v>
-      </c>
       <c r="C4" s="1">
         <v>3470</v>
       </c>
@@ -2233,12 +2170,6 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>468</v>
-      </c>
       <c r="C5" s="1">
         <v>531</v>
       </c>
@@ -2304,12 +2235,6 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>468</v>
-      </c>
       <c r="C6" s="1">
         <v>527</v>
       </c>
@@ -2375,12 +2300,6 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>468</v>
-      </c>
       <c r="C7" s="1">
         <v>4253</v>
       </c>
@@ -2446,12 +2365,6 @@
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>468</v>
-      </c>
       <c r="C8" s="1">
         <v>4259</v>
       </c>
@@ -2517,12 +2430,6 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>469</v>
-      </c>
       <c r="C9" s="1">
         <v>3427</v>
       </c>
@@ -2588,12 +2495,6 @@
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>469</v>
-      </c>
       <c r="C10" s="1">
         <v>3423</v>
       </c>
@@ -2659,12 +2560,6 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>469</v>
-      </c>
       <c r="C11" s="1">
         <v>3708</v>
       </c>
@@ -2733,12 +2628,6 @@
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>469</v>
-      </c>
       <c r="C12" s="1">
         <v>3353</v>
       </c>
@@ -2804,12 +2693,6 @@
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>470</v>
-      </c>
       <c r="C13" s="1">
         <v>2637</v>
       </c>
@@ -2875,12 +2758,6 @@
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>472</v>
-      </c>
       <c r="C14" s="1">
         <v>2648</v>
       </c>
@@ -2946,12 +2823,6 @@
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>470</v>
-      </c>
       <c r="C15" s="1">
         <v>2619</v>
       </c>
@@ -3017,12 +2888,6 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>470</v>
-      </c>
       <c r="C16" s="1">
         <v>615</v>
       </c>
@@ -3087,13 +2952,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>470</v>
-      </c>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C17" s="1">
         <v>2617</v>
       </c>
@@ -3158,13 +3017,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>470</v>
-      </c>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C18" s="1">
         <v>604</v>
       </c>
@@ -3229,13 +3082,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>472</v>
-      </c>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C19" s="1">
         <v>2652</v>
       </c>
@@ -3300,13 +3147,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>469</v>
-      </c>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C20" s="1">
         <v>3468</v>
       </c>
@@ -3371,13 +3212,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>469</v>
-      </c>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C21" s="1">
         <v>469</v>
       </c>
@@ -3442,13 +3277,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>469</v>
-      </c>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C22" s="1">
         <v>515</v>
       </c>
@@ -3513,13 +3342,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>470</v>
-      </c>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C23" s="1">
         <v>2630</v>
       </c>
@@ -3584,13 +3407,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>470</v>
-      </c>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C24" s="1">
         <v>2357</v>
       </c>
@@ -3658,13 +3475,7 @@
         <v>39.526027397299998</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>470</v>
-      </c>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C25" s="1">
         <v>2534</v>
       </c>
@@ -3729,13 +3540,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>470</v>
-      </c>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C26" s="1">
         <v>612</v>
       </c>
@@ -3803,13 +3608,7 @@
         <v>16.6328767123</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>469</v>
-      </c>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C27" s="1">
         <v>3362</v>
       </c>
@@ -3877,13 +3676,7 @@
         <v>18.465753424700001</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>469</v>
-      </c>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C28" s="1">
         <v>2949</v>
       </c>
@@ -3948,13 +3741,7 @@
         <v>37.150684931500003</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>472</v>
-      </c>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C29" s="1">
         <v>2647</v>
       </c>
@@ -4019,13 +3806,7 @@
         <v>37.150684931500003</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>470</v>
-      </c>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C30" s="1">
         <v>2562</v>
       </c>
@@ -4090,13 +3871,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>469</v>
-      </c>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C31" s="1">
         <v>351</v>
       </c>
@@ -4161,13 +3936,7 @@
         <v>34.320547945199998</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>475</v>
-      </c>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C32" s="1">
         <v>2973</v>
       </c>
@@ -4235,13 +4004,7 @@
         <v>33.238356164400003</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>475</v>
-      </c>
+    <row r="33" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C33" s="1">
         <v>3432</v>
       </c>
@@ -4306,13 +4069,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>473</v>
-      </c>
+    <row r="34" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C34" s="1">
         <v>2936</v>
       </c>
@@ -4377,13 +4134,7 @@
         <v>34.983561643800002</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>478</v>
-      </c>
+    <row r="35" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C35" s="1">
         <v>3153</v>
       </c>
@@ -4448,13 +4199,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>478</v>
-      </c>
+    <row r="36" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C36" s="1">
         <v>388</v>
       </c>
@@ -4522,13 +4267,7 @@
         <v>10.375342465799999</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>475</v>
-      </c>
+    <row r="37" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C37" s="1">
         <v>3944</v>
       </c>
@@ -4596,13 +4335,7 @@
         <v>24.638356164400001</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>475</v>
-      </c>
+    <row r="38" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C38" s="1">
         <v>3385</v>
       </c>
@@ -4667,13 +4400,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>473</v>
-      </c>
+    <row r="39" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C39" s="1">
         <v>3179</v>
       </c>
@@ -4738,13 +4465,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>472</v>
-      </c>
+    <row r="40" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C40" s="1">
         <v>2752</v>
       </c>
@@ -4809,13 +4530,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>474</v>
-      </c>
+    <row r="41" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C41" s="1">
         <v>3323</v>
       </c>
@@ -4880,13 +4595,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>472</v>
-      </c>
+    <row r="42" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C42" s="1">
         <v>3927</v>
       </c>
@@ -4954,13 +4663,7 @@
         <v>30.8082191781</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>473</v>
-      </c>
+    <row r="43" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C43" s="1">
         <v>2924</v>
       </c>
@@ -5028,13 +4731,7 @@
         <v>24.638356164400001</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>473</v>
-      </c>
+    <row r="44" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C44" s="1">
         <v>2934</v>
       </c>
@@ -5099,13 +4796,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>472</v>
-      </c>
+    <row r="45" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C45" s="1">
         <v>2751</v>
       </c>
@@ -5170,13 +4861,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>474</v>
-      </c>
+    <row r="46" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C46" s="1">
         <v>2896</v>
       </c>
@@ -5241,13 +4926,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>474</v>
-      </c>
+    <row r="47" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C47" s="1">
         <v>3398</v>
       </c>
@@ -5312,13 +4991,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>473</v>
-      </c>
+    <row r="48" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C48" s="1">
         <v>2930</v>
       </c>
@@ -5383,13 +5056,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>474</v>
-      </c>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C49" s="1">
         <v>2754</v>
       </c>
@@ -5454,13 +5121,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>473</v>
-      </c>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C50" s="1">
         <v>3175</v>
       </c>
@@ -5525,13 +5186,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>475</v>
-      </c>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C51" s="1">
         <v>3198</v>
       </c>
@@ -5599,13 +5254,7 @@
         <v>18.380821917799999</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>474</v>
-      </c>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C52" s="1">
         <v>3166</v>
       </c>
@@ -5670,13 +5319,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>472</v>
-      </c>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C53" s="1">
         <v>4445</v>
       </c>
@@ -5744,13 +5387,7 @@
         <v>39.526027397299998</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>472</v>
-      </c>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C54" s="1">
         <v>2753</v>
       </c>
@@ -5815,10 +5452,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>471</v>
-      </c>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C55" s="1">
         <v>4577</v>
       </c>
@@ -5889,10 +5523,7 @@
         <v>29.701369863</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
-        <v>471</v>
-      </c>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C56" s="1">
         <v>217</v>
       </c>
@@ -5957,10 +5588,7 @@
         <v>15.043835616400001</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>471</v>
-      </c>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C57" s="1">
         <v>306</v>
       </c>
@@ -6025,13 +5653,7 @@
         <v>11.8438356164</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>473</v>
-      </c>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C58" s="1">
         <v>3410</v>
       </c>
@@ -6096,13 +5718,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>475</v>
-      </c>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C59" s="1">
         <v>3191</v>
       </c>
@@ -6167,13 +5783,7 @@
         <v>38.572602739700002</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>473</v>
-      </c>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C60" s="1">
         <v>2938</v>
       </c>
@@ -6238,13 +5848,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>475</v>
-      </c>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C61" s="1">
         <v>3193</v>
       </c>
@@ -6309,13 +5913,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>474</v>
-      </c>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C62" s="1">
         <v>2894</v>
       </c>
@@ -6380,10 +5978,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>471</v>
-      </c>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C63" s="1">
         <v>229</v>
       </c>
@@ -6448,10 +6043,7 @@
         <v>16.3863013699</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
-        <v>471</v>
-      </c>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C64" s="1">
         <v>197</v>
       </c>
@@ -6519,13 +6111,7 @@
         <v>12.704109589</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>475</v>
-      </c>
+    <row r="65" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C65" s="1">
         <v>3445</v>
       </c>
@@ -6590,13 +6176,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>474</v>
-      </c>
+    <row r="66" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C66" s="1">
         <v>3157</v>
       </c>
@@ -6661,13 +6241,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>473</v>
-      </c>
+    <row r="67" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C67" s="1">
         <v>3414</v>
       </c>
@@ -6735,13 +6309,7 @@
         <v>12.5452054795</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>474</v>
-      </c>
+    <row r="68" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C68" s="1">
         <v>2909</v>
       </c>
@@ -6806,13 +6374,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>475</v>
-      </c>
+    <row r="69" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C69" s="1">
         <v>2972</v>
       </c>
@@ -6880,13 +6442,7 @@
         <v>16.134246575300001</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>473</v>
-      </c>
+    <row r="70" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C70" s="1">
         <v>3415</v>
       </c>
@@ -6954,13 +6510,7 @@
         <v>16.967123287700002</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>474</v>
-      </c>
+    <row r="71" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C71" s="1">
         <v>3395</v>
       </c>
@@ -7025,13 +6575,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>472</v>
-      </c>
+    <row r="72" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C72" s="1">
         <v>2747</v>
       </c>
@@ -7099,13 +6643,7 @@
         <v>36.0383561644</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>472</v>
-      </c>
+    <row r="73" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C73" s="1">
         <v>2723</v>
       </c>
@@ -7170,13 +6708,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>474</v>
-      </c>
+    <row r="74" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C74" s="1">
         <v>3164</v>
       </c>
@@ -7244,13 +6776,7 @@
         <v>35.071232876700002</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>478</v>
-      </c>
+    <row r="75" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C75" s="1">
         <v>4578</v>
       </c>
@@ -7321,13 +6847,7 @@
         <v>40.832876712299999</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>475</v>
-      </c>
+    <row r="76" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C76" s="1">
         <v>3014</v>
       </c>
@@ -7392,13 +6912,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>477</v>
-      </c>
+    <row r="77" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C77" s="1">
         <v>472</v>
       </c>
@@ -7463,13 +6977,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>477</v>
-      </c>
+    <row r="78" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C78" s="1">
         <v>389</v>
       </c>
@@ -7537,13 +7045,7 @@
         <v>34.679452054800002</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>477</v>
-      </c>
+    <row r="79" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C79" s="1">
         <v>373</v>
       </c>
@@ -7608,13 +7110,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>477</v>
-      </c>
+    <row r="80" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C80" s="1">
         <v>382</v>
       </c>
@@ -7679,13 +7175,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>477</v>
-      </c>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C81" s="1">
         <v>307</v>
       </c>
@@ -7750,13 +7240,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A82" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>477</v>
-      </c>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C82" s="1">
         <v>450</v>
       </c>
@@ -7821,13 +7305,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A83" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>477</v>
-      </c>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C83" s="1">
         <v>3387</v>
       </c>
@@ -7895,13 +7373,7 @@
         <v>13.882191780799999</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A84" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>477</v>
-      </c>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C84" s="1">
         <v>3366</v>
       </c>
@@ -7966,13 +7438,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A85" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>477</v>
-      </c>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C85" s="1">
         <v>3015</v>
       </c>
@@ -8037,13 +7503,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A86" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>482</v>
-      </c>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C86" s="1">
         <v>2221</v>
       </c>
@@ -8111,13 +7571,7 @@
         <v>39.526027397299998</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>476</v>
-      </c>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C87" s="1">
         <v>617</v>
       </c>
@@ -8182,13 +7636,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A88" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>476</v>
-      </c>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C88" s="1">
         <v>603</v>
       </c>
@@ -8253,13 +7701,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A89" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>476</v>
-      </c>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C89" s="1">
         <v>448</v>
       </c>
@@ -8324,13 +7766,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A90" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>476</v>
-      </c>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C90" s="1">
         <v>521</v>
       </c>
@@ -8395,13 +7831,7 @@
         <v>41.657534246600001</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A91" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>476</v>
-      </c>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C91" s="1">
         <v>2649</v>
       </c>
@@ -8466,13 +7896,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A92" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>476</v>
-      </c>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C92" s="1">
         <v>2725</v>
       </c>
@@ -8537,13 +7961,7 @@
         <v>39.572602739700002</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A93" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>479</v>
-      </c>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C93" s="1">
         <v>2740</v>
       </c>
@@ -8608,13 +8026,7 @@
         <v>39.572602739700002</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A94" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>476</v>
-      </c>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C94" s="1">
         <v>3755</v>
       </c>
@@ -8679,13 +8091,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A95" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>476</v>
-      </c>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C95" s="1">
         <v>2724</v>
       </c>
@@ -8750,13 +8156,7 @@
         <v>37.150684931500003</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A96" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>479</v>
-      </c>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C96" s="1">
         <v>2992</v>
       </c>
@@ -8821,13 +8221,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A97" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>479</v>
-      </c>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C97" s="1">
         <v>3394</v>
       </c>
@@ -8892,13 +8286,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A98" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>479</v>
-      </c>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C98" s="1">
         <v>3186</v>
       </c>
@@ -8963,13 +8351,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A99" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>476</v>
-      </c>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C99" s="1">
         <v>2736</v>
       </c>
@@ -9034,13 +8416,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A100" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>476</v>
-      </c>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C100" s="1">
         <v>2729</v>
       </c>
@@ -9105,13 +8481,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A101" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>479</v>
-      </c>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C101" s="1">
         <v>2880</v>
       </c>
@@ -9176,10 +8546,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A102" s="3" t="s">
-        <v>471</v>
-      </c>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C102" s="1">
         <v>4579</v>
       </c>
@@ -9250,13 +8617,7 @@
         <v>40.794520547899999</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A103" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>480</v>
-      </c>
+    <row r="103" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C103" s="1">
         <v>3379</v>
       </c>
@@ -9321,13 +8682,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A104" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>479</v>
-      </c>
+    <row r="104" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C104" s="1">
         <v>3003</v>
       </c>
@@ -9392,13 +8747,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A105" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>480</v>
-      </c>
+    <row r="105" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C105" s="1">
         <v>3381</v>
       </c>
@@ -9463,13 +8812,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A106" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>481</v>
-      </c>
+    <row r="106" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C106" s="1">
         <v>384</v>
       </c>
@@ -9534,13 +8877,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A107" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>479</v>
-      </c>
+    <row r="107" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C107" s="1">
         <v>3441</v>
       </c>
@@ -9605,13 +8942,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A108" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>482</v>
-      </c>
+    <row r="108" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C108" s="1">
         <v>485</v>
       </c>
@@ -9676,13 +9007,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A109" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>480</v>
-      </c>
+    <row r="109" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C109" s="1">
         <v>3382</v>
       </c>
@@ -9747,13 +9072,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A110" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>479</v>
-      </c>
+    <row r="110" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C110" s="1">
         <v>3016</v>
       </c>
@@ -9818,13 +9137,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A111" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>482</v>
-      </c>
+    <row r="111" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C111" s="1">
         <v>462</v>
       </c>
@@ -9889,13 +9202,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A112" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>480</v>
-      </c>
+    <row r="112" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C112" s="1">
         <v>3383</v>
       </c>
@@ -9960,13 +9267,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A113" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>481</v>
-      </c>
+    <row r="113" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C113" s="1">
         <v>3475</v>
       </c>
@@ -10031,13 +9332,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A114" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>480</v>
-      </c>
+    <row r="114" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C114" s="1">
         <v>2674</v>
       </c>
@@ -10105,13 +9400,7 @@
         <v>39.526027397299998</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A115" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>479</v>
-      </c>
+    <row r="115" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C115" s="1">
         <v>3012</v>
       </c>
@@ -10176,13 +9465,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A116" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>482</v>
-      </c>
+    <row r="116" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C116" s="1">
         <v>484</v>
       </c>
@@ -10247,13 +9530,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A117" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>481</v>
-      </c>
+    <row r="117" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C117" s="1">
         <v>390</v>
       </c>
@@ -10321,13 +9598,7 @@
         <v>22.139726027399998</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A118" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>481</v>
-      </c>
+    <row r="118" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C118" s="1">
         <v>1965</v>
       </c>
@@ -10395,13 +9666,7 @@
         <v>39.526027397299998</v>
       </c>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A119" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>480</v>
-      </c>
+    <row r="119" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C119" s="1">
         <v>3380</v>
       </c>
@@ -10469,13 +9734,7 @@
         <v>39.526027397299998</v>
       </c>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A120" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>481</v>
-      </c>
+    <row r="120" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C120" s="1">
         <v>3474</v>
       </c>
@@ -10540,13 +9799,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A121" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>480</v>
-      </c>
+    <row r="121" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C121" s="1">
         <v>3152</v>
       </c>
@@ -10611,13 +9864,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A122" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>482</v>
-      </c>
+    <row r="122" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C122" s="1">
         <v>461</v>
       </c>
@@ -10682,13 +9929,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A123" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>481</v>
-      </c>
+    <row r="123" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C123" s="1">
         <v>385</v>
       </c>
@@ -10756,13 +9997,7 @@
         <v>22.139726027399998</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A124" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>482</v>
-      </c>
+    <row r="124" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C124" s="1">
         <v>467</v>
       </c>
@@ -10827,13 +10062,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A125" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>481</v>
-      </c>
+    <row r="125" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C125" s="1">
         <v>392</v>
       </c>
@@ -10901,13 +10130,7 @@
         <v>29.482191780800001</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A126" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>481</v>
-      </c>
+    <row r="126" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C126" s="1">
         <v>381</v>
       </c>
@@ -10972,13 +10195,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A127" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>480</v>
-      </c>
+    <row r="127" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C127" s="1">
         <v>3367</v>
       </c>
@@ -11043,13 +10260,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A128" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>481</v>
-      </c>
+    <row r="128" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C128" s="1">
         <v>2009</v>
       </c>
@@ -11117,13 +10328,7 @@
         <v>35.323287671199999</v>
       </c>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A129" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>479</v>
-      </c>
+    <row r="129" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C129" s="1">
         <v>3430</v>
       </c>
@@ -11188,13 +10393,7 @@
         <v>37.150684931500003</v>
       </c>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A130" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>480</v>
-      </c>
+    <row r="130" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C130" s="1">
         <v>3391</v>
       </c>
@@ -11262,13 +10461,7 @@
         <v>10.293150684900001</v>
       </c>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A131" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>480</v>
-      </c>
+    <row r="131" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C131" s="1">
         <v>3150</v>
       </c>
@@ -11333,13 +10526,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A132" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>481</v>
-      </c>
+    <row r="132" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C132" s="1">
         <v>393</v>
       </c>
@@ -11407,10 +10594,7 @@
         <v>39.526027397299998</v>
       </c>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A133" s="3" t="s">
-        <v>471</v>
-      </c>
+    <row r="133" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C133" s="1">
         <v>230</v>
       </c>
@@ -11475,10 +10659,7 @@
         <v>15.8602739726</v>
       </c>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A134" s="3" t="s">
-        <v>471</v>
-      </c>
+    <row r="134" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C134" s="1">
         <v>193</v>
       </c>
@@ -11543,13 +10724,7 @@
         <v>13.257534246600001</v>
       </c>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A135" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>488</v>
-      </c>
+    <row r="135" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C135" s="1">
         <v>3361</v>
       </c>
@@ -11617,13 +10792,7 @@
         <v>30.473972602700002</v>
       </c>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A136" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>488</v>
-      </c>
+    <row r="136" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C136" s="1">
         <v>3230</v>
       </c>
@@ -11688,13 +10857,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A137" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>488</v>
-      </c>
+    <row r="137" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C137" s="1">
         <v>4415</v>
       </c>
@@ -11759,13 +10922,7 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A138" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>488</v>
-      </c>
+    <row r="138" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C138" s="1">
         <v>541</v>
       </c>
@@ -11833,13 +10990,7 @@
         <v>32.956164383599997</v>
       </c>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A139" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>488</v>
-      </c>
+    <row r="139" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C139" s="1">
         <v>3356</v>
       </c>
@@ -11907,13 +11058,7 @@
         <v>38.556164383599999</v>
       </c>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A140" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>488</v>
-      </c>
+    <row r="140" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C140" s="1">
         <v>3429</v>
       </c>
@@ -12034,10 +11179,10 @@
         <v>465</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -12114,10 +11259,10 @@
         <v>466</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="D2" s="1">
         <v>3708</v>
@@ -12192,10 +11337,10 @@
         <v>466</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="D3" s="1">
         <v>2562</v>
@@ -12267,10 +11412,10 @@
         <v>466</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="D4" s="1">
         <v>351</v>
@@ -12342,10 +11487,10 @@
         <v>466</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="D5" s="1">
         <v>3941</v>
@@ -12420,10 +11565,10 @@
         <v>466</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="D6" s="1">
         <v>3175</v>
@@ -12495,10 +11640,10 @@
         <v>466</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="D7" s="1">
         <v>3198</v>
@@ -12573,10 +11718,10 @@
         <v>466</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="D8" s="1">
         <v>3166</v>
@@ -12648,10 +11793,10 @@
         <v>466</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="D9" s="1">
         <v>4445</v>
@@ -12726,10 +11871,10 @@
         <v>466</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="D10" s="1">
         <v>2753</v>
@@ -12798,7 +11943,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D11" s="1">
         <v>4577</v>
@@ -12872,7 +12017,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D12" s="1">
         <v>217</v>
@@ -12941,7 +12086,7 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D13" s="1">
         <v>306</v>
@@ -13010,7 +12155,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D14" s="1">
         <v>3546</v>
@@ -13087,10 +12232,10 @@
         <v>466</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="D15" s="1">
         <v>4047</v>
@@ -13162,10 +12307,10 @@
         <v>466</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="D16" s="1">
         <v>2938</v>
@@ -13237,10 +12382,10 @@
         <v>466</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="D17" s="1">
         <v>3193</v>
@@ -13312,10 +12457,10 @@
         <v>466</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="D18" s="1">
         <v>2894</v>
@@ -13384,7 +12529,7 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D19" s="1">
         <v>229</v>
@@ -13456,10 +12601,10 @@
         <v>466</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="D20" s="1">
         <v>197</v>
@@ -13531,7 +12676,7 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D21" s="1">
         <v>4578</v>
@@ -13608,10 +12753,10 @@
         <v>466</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="D22" s="1">
         <v>2928</v>
@@ -13686,10 +12831,10 @@
         <v>466</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="D23" s="1">
         <v>2657</v>
@@ -13761,7 +12906,7 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D24" s="1">
         <v>4581</v>
@@ -13835,7 +12980,7 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D25" s="1">
         <v>3701</v>
@@ -13904,7 +13049,7 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D26" s="1">
         <v>4069</v>
@@ -13976,10 +13121,10 @@
         <v>466</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="D27" s="1">
         <v>307</v>
@@ -14051,10 +13196,10 @@
         <v>466</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="D28" s="1">
         <v>3015</v>
@@ -14126,10 +13271,10 @@
         <v>466</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="D29" s="1">
         <v>2221</v>
@@ -14201,7 +13346,7 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D30" s="1">
         <v>211</v>
@@ -14273,10 +13418,10 @@
         <v>466</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="D31" s="1">
         <v>202</v>
@@ -14348,10 +13493,10 @@
         <v>466</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="D32" s="1">
         <v>3755</v>
@@ -14423,10 +13568,10 @@
         <v>466</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="D33" s="1">
         <v>2724</v>
@@ -14495,7 +13640,7 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D34" s="1">
         <v>195</v>
@@ -14564,7 +13709,7 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D35" s="1">
         <v>4579</v>
@@ -14641,10 +13786,10 @@
         <v>466</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="D36" s="1">
         <v>3391</v>
@@ -14719,10 +13864,10 @@
         <v>466</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="D37" s="1">
         <v>3150</v>
@@ -14794,10 +13939,10 @@
         <v>466</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="D38" s="1">
         <v>393</v>
@@ -14869,7 +14014,7 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D39" s="1">
         <v>3371</v>
@@ -14941,7 +14086,7 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D40" s="1">
         <v>3377</v>
@@ -15013,7 +14158,7 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D41" s="1">
         <v>230</v>
@@ -15082,7 +14227,7 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D42" s="1">
         <v>193</v>
@@ -15151,7 +14296,7 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D43" s="1">
         <v>4580</v>
@@ -15352,7 +14497,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C2" s="1">
         <v>3708</v>
@@ -15423,7 +14568,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C3" s="1">
         <v>2562</v>
@@ -15491,7 +14636,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C4" s="1">
         <v>351</v>
@@ -15559,7 +14704,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C5" s="1">
         <v>3941</v>
@@ -15630,7 +14775,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C6" s="1">
         <v>3701</v>
@@ -15698,7 +14843,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C7" s="1">
         <v>3175</v>
@@ -15766,7 +14911,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C8" s="1">
         <v>3198</v>
@@ -15837,7 +14982,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C9" s="1">
         <v>3166</v>
@@ -15905,7 +15050,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C10" s="1">
         <v>4445</v>
@@ -15976,7 +15121,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C11" s="1">
         <v>2753</v>
@@ -16044,7 +15189,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C12" s="1">
         <v>4577</v>
@@ -16118,7 +15263,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C13" s="1">
         <v>217</v>
@@ -16186,7 +15331,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C14" s="1">
         <v>306</v>
@@ -16254,7 +15399,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C15" s="1">
         <v>3546</v>
@@ -16328,7 +15473,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C16" s="1">
         <v>2938</v>
@@ -16396,7 +15541,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C17" s="1">
         <v>3193</v>
@@ -16464,7 +15609,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C18" s="1">
         <v>2894</v>
@@ -16532,7 +15677,7 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C19" s="1">
         <v>229</v>
@@ -16600,7 +15745,7 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C20" s="1">
         <v>197</v>
@@ -16671,7 +15816,7 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C21" s="1">
         <v>4578</v>
@@ -16745,7 +15890,7 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C22" s="1">
         <v>2928</v>
@@ -16816,7 +15961,7 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C23" s="1">
         <v>2657</v>
@@ -16887,7 +16032,7 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C24" s="1">
         <v>4581</v>
@@ -16961,7 +16106,7 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C25" s="1">
         <v>4069</v>
@@ -17029,7 +16174,7 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C26" s="1">
         <v>307</v>
@@ -17097,7 +16242,7 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C27" s="1">
         <v>3015</v>
@@ -17165,7 +16310,7 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C28" s="1">
         <v>2221</v>
@@ -17236,7 +16381,7 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C29" s="1">
         <v>211</v>
@@ -17304,7 +16449,7 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C30" s="1">
         <v>202</v>
@@ -17372,7 +16517,7 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C31" s="1">
         <v>3755</v>
@@ -17440,7 +16585,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C32" s="1">
         <v>2724</v>
@@ -17508,7 +16653,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C33" s="1">
         <v>195</v>
@@ -17576,7 +16721,7 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C34" s="1">
         <v>4579</v>
@@ -17650,7 +16795,7 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C35" s="1">
         <v>3391</v>
@@ -17721,7 +16866,7 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C36" s="1">
         <v>3150</v>
@@ -17789,7 +16934,7 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C37" s="1">
         <v>393</v>
@@ -17860,7 +17005,7 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C38" s="1">
         <v>3371</v>
@@ -17931,7 +17076,7 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C39" s="1">
         <v>3377</v>
@@ -18002,7 +17147,7 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C40" s="1">
         <v>230</v>
@@ -18073,7 +17218,7 @@
         <v>466</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="C41" s="1">
         <v>193</v>
@@ -18141,7 +17286,7 @@
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C42" s="1">
         <v>4580</v>
@@ -18346,7 +17491,7 @@
         <v>466</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="C2" s="1">
         <v>520</v>
@@ -18417,7 +17562,7 @@
         <v>466</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="C3" s="1">
         <v>434</v>
@@ -18488,7 +17633,7 @@
         <v>466</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="C4" s="1">
         <v>3448</v>
@@ -18556,7 +17701,7 @@
     </row>
     <row r="5" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C5" s="1">
         <v>4246</v>
@@ -18627,7 +17772,7 @@
         <v>466</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="C6" s="1">
         <v>50</v>
@@ -18698,7 +17843,7 @@
         <v>466</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="C7" s="1">
         <v>47</v>
@@ -18769,7 +17914,7 @@
         <v>466</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="C8" s="1">
         <v>2945</v>
@@ -18840,7 +17985,7 @@
         <v>466</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="C9" s="1">
         <v>421</v>
@@ -18911,7 +18056,7 @@
         <v>466</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="C10" s="1">
         <v>4258</v>
@@ -18979,7 +18124,7 @@
     </row>
     <row r="11" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C11" s="1">
         <v>3235</v>
@@ -19053,7 +18198,7 @@
         <v>466</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="C12" s="1">
         <v>3473</v>
@@ -19124,7 +18269,7 @@
         <v>466</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="C13" s="1">
         <v>3216</v>
@@ -19192,7 +18337,7 @@
     </row>
     <row r="14" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C14" s="1">
         <v>3422</v>
@@ -19263,7 +18408,7 @@
         <v>466</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="C15" s="1">
         <v>613</v>
@@ -19331,7 +18476,7 @@
     </row>
     <row r="16" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C16" s="1">
         <v>605</v>
@@ -19402,7 +18547,7 @@
         <v>466</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="C17" s="1">
         <v>2650</v>
@@ -19473,7 +18618,7 @@
     </row>
     <row r="18" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C18" s="1">
         <v>533</v>
@@ -19544,7 +18689,7 @@
         <v>466</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="C19" s="1">
         <v>3071</v>
@@ -19615,7 +18760,7 @@
         <v>466</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="C20" s="1">
         <v>2596</v>
@@ -19689,7 +18834,7 @@
         <v>466</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="C21" s="1">
         <v>3384</v>
@@ -19760,7 +18905,7 @@
         <v>466</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="C22" s="1">
         <v>3019</v>
@@ -19834,7 +18979,7 @@
         <v>466</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="C23" s="1">
         <v>3154</v>
@@ -19905,7 +19050,7 @@
         <v>466</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="C24" s="1">
         <v>2932</v>
@@ -19976,7 +19121,7 @@
         <v>466</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="C25" s="1">
         <v>3412</v>
@@ -20047,7 +19192,7 @@
         <v>466</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="C26" s="1">
         <v>2895</v>
@@ -20118,7 +19263,7 @@
         <v>466</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="C27" s="1">
         <v>2727</v>
@@ -20189,7 +19334,7 @@
         <v>466</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="C28" s="1">
         <v>4472</v>
@@ -20263,7 +19408,7 @@
         <v>466</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="C29" s="1">
         <v>3192</v>
@@ -20334,7 +19479,7 @@
         <v>466</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="C30" s="1">
         <v>3174</v>
@@ -20405,7 +19550,7 @@
         <v>466</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="C31" s="1">
         <v>1256</v>
@@ -20476,7 +19621,7 @@
         <v>466</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="C32" s="1">
         <v>2937</v>
@@ -20547,7 +19692,7 @@
         <v>466</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="C33" s="1">
         <v>3409</v>
@@ -20618,7 +19763,7 @@
         <v>466</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="C34" s="1">
         <v>2722</v>
@@ -20689,7 +19834,7 @@
         <v>466</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="C35" s="1">
         <v>3072</v>
@@ -20760,7 +19905,7 @@
         <v>466</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="C36" s="1">
         <v>3446</v>
@@ -20828,7 +19973,7 @@
     </row>
     <row r="37" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C37" s="1">
         <v>2939</v>
@@ -20899,7 +20044,7 @@
         <v>466</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="C38" s="1">
         <v>3084</v>
@@ -20970,7 +20115,7 @@
         <v>466</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="C39" s="1">
         <v>3956</v>
@@ -21044,7 +20189,7 @@
         <v>466</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="C40" s="1">
         <v>194</v>
@@ -21115,7 +20260,7 @@
         <v>466</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="C41" s="1">
         <v>471</v>
@@ -21186,7 +20331,7 @@
         <v>466</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="C42" s="1">
         <v>480</v>
@@ -21257,7 +20402,7 @@
         <v>466</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="C43" s="1">
         <v>466</v>
@@ -21328,7 +20473,7 @@
         <v>466</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="C44" s="1">
         <v>478</v>
@@ -21399,7 +20544,7 @@
         <v>466</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="C45" s="1">
         <v>464</v>
@@ -21470,7 +20615,7 @@
         <v>466</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="C46" s="1">
         <v>241</v>
@@ -21541,7 +20686,7 @@
         <v>466</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="C47" s="1">
         <v>395</v>
@@ -21612,7 +20757,7 @@
         <v>466</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="C48" s="1">
         <v>4328</v>
@@ -21683,7 +20828,7 @@
         <v>466</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="C49" s="1">
         <v>192</v>
@@ -21751,7 +20896,7 @@
     </row>
     <row r="50" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C50" s="1">
         <v>532</v>
@@ -21819,7 +20964,7 @@
     </row>
     <row r="51" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C51" s="1">
         <v>516</v>
@@ -21890,7 +21035,7 @@
         <v>466</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="C52" s="1">
         <v>3176</v>
@@ -21961,7 +21106,7 @@
         <v>466</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="C53" s="1">
         <v>2908</v>
@@ -22032,7 +21177,7 @@
         <v>466</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="C54" s="1">
         <v>3368</v>
@@ -22103,7 +21248,7 @@
         <v>466</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="C55" s="1">
         <v>396</v>
@@ -22174,7 +21319,7 @@
         <v>466</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="C56" s="1">
         <v>374</v>
@@ -22245,7 +21390,7 @@
         <v>466</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="C57" s="1">
         <v>2997</v>
@@ -22316,7 +21461,7 @@
         <v>466</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="C58" s="1">
         <v>463</v>
@@ -22387,7 +21532,7 @@
         <v>466</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="C59" s="1">
         <v>3001</v>
@@ -22458,7 +21603,7 @@
         <v>466</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="C60" s="1">
         <v>3364</v>
@@ -22529,7 +21674,7 @@
         <v>466</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="C61" s="1">
         <v>3011</v>
@@ -22600,7 +21745,7 @@
         <v>466</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="C62" s="1">
         <v>380</v>
@@ -22671,7 +21816,7 @@
         <v>466</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="C63" s="1">
         <v>3351</v>
@@ -22742,7 +21887,7 @@
         <v>466</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="C64" s="1">
         <v>3967</v>
@@ -22816,7 +21961,7 @@
         <v>466</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="C65" s="1">
         <v>3787</v>
@@ -22887,7 +22032,7 @@
         <v>466</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="C66" s="1">
         <v>2952</v>

--- a/.datasets/IDEAM/CNEStationDatasetDownload.xlsx
+++ b/.datasets/IDEAM/CNEStationDatasetDownload.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.LTWB\.datasets\IDEAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E75E6F-B01E-4B32-BDDD-5F04A041A863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E175646-9E07-49AE-9089-21351A3009D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-285" windowWidth="29040" windowHeight="15720" xr2:uid="{A0568F04-DB89-4E32-835D-4141C8FDD13B}"/>
+    <workbookView xWindow="-26220" yWindow="2190" windowWidth="21600" windowHeight="11295" xr2:uid="{A0568F04-DB89-4E32-835D-4141C8FDD13B}"/>
   </bookViews>
   <sheets>
     <sheet name="Precipitacion" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4144" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4145" uniqueCount="484">
   <si>
     <t>OBJECTID</t>
   </si>
@@ -1862,16 +1862,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BF7089-3989-48DA-9543-7EA7C591111E}">
   <dimension ref="A1:Y140"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -1975,6 +1975,9 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>466</v>
+      </c>
       <c r="C2" s="1">
         <v>883</v>
       </c>

--- a/.datasets/IDEAM/CNEStationDatasetDownload.xlsx
+++ b/.datasets/IDEAM/CNEStationDatasetDownload.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.LTWB\.datasets\IDEAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E175646-9E07-49AE-9089-21351A3009D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E85E9D7-9CE3-46FC-894D-6CBD4D7B97E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26220" yWindow="2190" windowWidth="21600" windowHeight="11295" xr2:uid="{A0568F04-DB89-4E32-835D-4141C8FDD13B}"/>
+    <workbookView xWindow="-26820" yWindow="1770" windowWidth="25620" windowHeight="8265" tabRatio="693" activeTab="3" xr2:uid="{A0568F04-DB89-4E32-835D-4141C8FDD13B}"/>
   </bookViews>
   <sheets>
     <sheet name="Precipitacion" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4145" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4414" uniqueCount="499">
   <si>
     <t>OBJECTID</t>
   </si>
@@ -1450,9 +1450,51 @@
     <t>File</t>
   </si>
   <si>
+    <t>datos.zip</t>
+  </si>
+  <si>
+    <t>datos (1).zip</t>
+  </si>
+  <si>
+    <t>datos (2).zip</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
+    <t>datos (3).zip</t>
+  </si>
+  <si>
+    <t>datos (5).zip</t>
+  </si>
+  <si>
+    <t>datos (4).zip</t>
+  </si>
+  <si>
+    <t>datos (6).zip</t>
+  </si>
+  <si>
+    <t>datos (9).zip</t>
+  </si>
+  <si>
+    <t>datos (8).zip</t>
+  </si>
+  <si>
+    <t>datos (7).zip</t>
+  </si>
+  <si>
+    <t>datos (10).zip</t>
+  </si>
+  <si>
+    <t>datos (11).zip</t>
+  </si>
+  <si>
+    <t>datos (12).zip</t>
+  </si>
+  <si>
+    <t>datos (13).zip</t>
+  </si>
+  <si>
     <t>datos (22).zip</t>
   </si>
   <si>
@@ -1466,6 +1508,9 @@
   </si>
   <si>
     <t>datos (21).zip</t>
+  </si>
+  <si>
+    <t>datos (14).zip</t>
   </si>
   <si>
     <t>File TMaxDay</t>
@@ -1862,7 +1907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BF7089-3989-48DA-9543-7EA7C591111E}">
   <dimension ref="A1:Y140"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -1978,6 +2023,9 @@
       <c r="A2" s="3" t="s">
         <v>466</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>468</v>
+      </c>
       <c r="C2" s="1">
         <v>883</v>
       </c>
@@ -2043,6 +2091,12 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>468</v>
+      </c>
       <c r="C3" s="1">
         <v>3219</v>
       </c>
@@ -2108,6 +2162,12 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>468</v>
+      </c>
       <c r="C4" s="1">
         <v>3470</v>
       </c>
@@ -2173,6 +2233,12 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>468</v>
+      </c>
       <c r="C5" s="1">
         <v>531</v>
       </c>
@@ -2238,6 +2304,12 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>468</v>
+      </c>
       <c r="C6" s="1">
         <v>527</v>
       </c>
@@ -2303,6 +2375,12 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>468</v>
+      </c>
       <c r="C7" s="1">
         <v>4253</v>
       </c>
@@ -2368,6 +2446,12 @@
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>468</v>
+      </c>
       <c r="C8" s="1">
         <v>4259</v>
       </c>
@@ -2433,6 +2517,12 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>469</v>
+      </c>
       <c r="C9" s="1">
         <v>3427</v>
       </c>
@@ -2498,6 +2588,12 @@
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>469</v>
+      </c>
       <c r="C10" s="1">
         <v>3423</v>
       </c>
@@ -2563,6 +2659,12 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>469</v>
+      </c>
       <c r="C11" s="1">
         <v>3708</v>
       </c>
@@ -2631,6 +2733,12 @@
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>469</v>
+      </c>
       <c r="C12" s="1">
         <v>3353</v>
       </c>
@@ -2696,6 +2804,12 @@
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>470</v>
+      </c>
       <c r="C13" s="1">
         <v>2637</v>
       </c>
@@ -2761,6 +2875,12 @@
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>472</v>
+      </c>
       <c r="C14" s="1">
         <v>2648</v>
       </c>
@@ -2826,6 +2946,12 @@
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>470</v>
+      </c>
       <c r="C15" s="1">
         <v>2619</v>
       </c>
@@ -2891,6 +3017,12 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>470</v>
+      </c>
       <c r="C16" s="1">
         <v>615</v>
       </c>
@@ -2955,7 +3087,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>470</v>
+      </c>
       <c r="C17" s="1">
         <v>2617</v>
       </c>
@@ -3020,7 +3158,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>470</v>
+      </c>
       <c r="C18" s="1">
         <v>604</v>
       </c>
@@ -3085,7 +3229,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>472</v>
+      </c>
       <c r="C19" s="1">
         <v>2652</v>
       </c>
@@ -3150,7 +3300,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>469</v>
+      </c>
       <c r="C20" s="1">
         <v>3468</v>
       </c>
@@ -3215,7 +3371,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>469</v>
+      </c>
       <c r="C21" s="1">
         <v>469</v>
       </c>
@@ -3280,7 +3442,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>469</v>
+      </c>
       <c r="C22" s="1">
         <v>515</v>
       </c>
@@ -3345,7 +3513,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>470</v>
+      </c>
       <c r="C23" s="1">
         <v>2630</v>
       </c>
@@ -3410,7 +3584,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>470</v>
+      </c>
       <c r="C24" s="1">
         <v>2357</v>
       </c>
@@ -3478,7 +3658,13 @@
         <v>39.526027397299998</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>470</v>
+      </c>
       <c r="C25" s="1">
         <v>2534</v>
       </c>
@@ -3543,7 +3729,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>470</v>
+      </c>
       <c r="C26" s="1">
         <v>612</v>
       </c>
@@ -3611,7 +3803,13 @@
         <v>16.6328767123</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>469</v>
+      </c>
       <c r="C27" s="1">
         <v>3362</v>
       </c>
@@ -3679,7 +3877,13 @@
         <v>18.465753424700001</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>469</v>
+      </c>
       <c r="C28" s="1">
         <v>2949</v>
       </c>
@@ -3744,7 +3948,13 @@
         <v>37.150684931500003</v>
       </c>
     </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>472</v>
+      </c>
       <c r="C29" s="1">
         <v>2647</v>
       </c>
@@ -3809,7 +4019,13 @@
         <v>37.150684931500003</v>
       </c>
     </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>470</v>
+      </c>
       <c r="C30" s="1">
         <v>2562</v>
       </c>
@@ -3874,7 +4090,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>469</v>
+      </c>
       <c r="C31" s="1">
         <v>351</v>
       </c>
@@ -3939,7 +4161,13 @@
         <v>34.320547945199998</v>
       </c>
     </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>475</v>
+      </c>
       <c r="C32" s="1">
         <v>2973</v>
       </c>
@@ -4007,7 +4235,13 @@
         <v>33.238356164400003</v>
       </c>
     </row>
-    <row r="33" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>475</v>
+      </c>
       <c r="C33" s="1">
         <v>3432</v>
       </c>
@@ -4072,7 +4306,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="34" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>473</v>
+      </c>
       <c r="C34" s="1">
         <v>2936</v>
       </c>
@@ -4137,7 +4377,13 @@
         <v>34.983561643800002</v>
       </c>
     </row>
-    <row r="35" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>478</v>
+      </c>
       <c r="C35" s="1">
         <v>3153</v>
       </c>
@@ -4202,7 +4448,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="36" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>478</v>
+      </c>
       <c r="C36" s="1">
         <v>388</v>
       </c>
@@ -4270,7 +4522,13 @@
         <v>10.375342465799999</v>
       </c>
     </row>
-    <row r="37" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>475</v>
+      </c>
       <c r="C37" s="1">
         <v>3944</v>
       </c>
@@ -4338,7 +4596,13 @@
         <v>24.638356164400001</v>
       </c>
     </row>
-    <row r="38" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>475</v>
+      </c>
       <c r="C38" s="1">
         <v>3385</v>
       </c>
@@ -4403,7 +4667,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="39" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>473</v>
+      </c>
       <c r="C39" s="1">
         <v>3179</v>
       </c>
@@ -4468,7 +4738,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="40" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>472</v>
+      </c>
       <c r="C40" s="1">
         <v>2752</v>
       </c>
@@ -4533,7 +4809,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="41" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>474</v>
+      </c>
       <c r="C41" s="1">
         <v>3323</v>
       </c>
@@ -4598,7 +4880,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="42" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>472</v>
+      </c>
       <c r="C42" s="1">
         <v>3927</v>
       </c>
@@ -4666,7 +4954,13 @@
         <v>30.8082191781</v>
       </c>
     </row>
-    <row r="43" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>473</v>
+      </c>
       <c r="C43" s="1">
         <v>2924</v>
       </c>
@@ -4734,7 +5028,13 @@
         <v>24.638356164400001</v>
       </c>
     </row>
-    <row r="44" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>473</v>
+      </c>
       <c r="C44" s="1">
         <v>2934</v>
       </c>
@@ -4799,7 +5099,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="45" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>472</v>
+      </c>
       <c r="C45" s="1">
         <v>2751</v>
       </c>
@@ -4864,7 +5170,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="46" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>474</v>
+      </c>
       <c r="C46" s="1">
         <v>2896</v>
       </c>
@@ -4929,7 +5241,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="47" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>474</v>
+      </c>
       <c r="C47" s="1">
         <v>3398</v>
       </c>
@@ -4994,7 +5312,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="48" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>473</v>
+      </c>
       <c r="C48" s="1">
         <v>2930</v>
       </c>
@@ -5059,7 +5383,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>474</v>
+      </c>
       <c r="C49" s="1">
         <v>2754</v>
       </c>
@@ -5124,7 +5454,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>473</v>
+      </c>
       <c r="C50" s="1">
         <v>3175</v>
       </c>
@@ -5189,7 +5525,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>475</v>
+      </c>
       <c r="C51" s="1">
         <v>3198</v>
       </c>
@@ -5257,7 +5599,13 @@
         <v>18.380821917799999</v>
       </c>
     </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>474</v>
+      </c>
       <c r="C52" s="1">
         <v>3166</v>
       </c>
@@ -5322,7 +5670,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>472</v>
+      </c>
       <c r="C53" s="1">
         <v>4445</v>
       </c>
@@ -5390,7 +5744,13 @@
         <v>39.526027397299998</v>
       </c>
     </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>472</v>
+      </c>
       <c r="C54" s="1">
         <v>2753</v>
       </c>
@@ -5455,7 +5815,10 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>471</v>
+      </c>
       <c r="C55" s="1">
         <v>4577</v>
       </c>
@@ -5526,7 +5889,10 @@
         <v>29.701369863</v>
       </c>
     </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>471</v>
+      </c>
       <c r="C56" s="1">
         <v>217</v>
       </c>
@@ -5591,7 +5957,10 @@
         <v>15.043835616400001</v>
       </c>
     </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>471</v>
+      </c>
       <c r="C57" s="1">
         <v>306</v>
       </c>
@@ -5656,7 +6025,13 @@
         <v>11.8438356164</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>473</v>
+      </c>
       <c r="C58" s="1">
         <v>3410</v>
       </c>
@@ -5721,7 +6096,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>475</v>
+      </c>
       <c r="C59" s="1">
         <v>3191</v>
       </c>
@@ -5786,7 +6167,13 @@
         <v>38.572602739700002</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>473</v>
+      </c>
       <c r="C60" s="1">
         <v>2938</v>
       </c>
@@ -5851,7 +6238,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>475</v>
+      </c>
       <c r="C61" s="1">
         <v>3193</v>
       </c>
@@ -5916,7 +6309,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>474</v>
+      </c>
       <c r="C62" s="1">
         <v>2894</v>
       </c>
@@ -5981,7 +6380,10 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>471</v>
+      </c>
       <c r="C63" s="1">
         <v>229</v>
       </c>
@@ -6046,7 +6448,10 @@
         <v>16.3863013699</v>
       </c>
     </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>471</v>
+      </c>
       <c r="C64" s="1">
         <v>197</v>
       </c>
@@ -6114,7 +6519,13 @@
         <v>12.704109589</v>
       </c>
     </row>
-    <row r="65" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>475</v>
+      </c>
       <c r="C65" s="1">
         <v>3445</v>
       </c>
@@ -6179,7 +6590,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="66" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>474</v>
+      </c>
       <c r="C66" s="1">
         <v>3157</v>
       </c>
@@ -6244,7 +6661,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="67" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>473</v>
+      </c>
       <c r="C67" s="1">
         <v>3414</v>
       </c>
@@ -6312,7 +6735,13 @@
         <v>12.5452054795</v>
       </c>
     </row>
-    <row r="68" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>474</v>
+      </c>
       <c r="C68" s="1">
         <v>2909</v>
       </c>
@@ -6377,7 +6806,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="69" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>475</v>
+      </c>
       <c r="C69" s="1">
         <v>2972</v>
       </c>
@@ -6445,7 +6880,13 @@
         <v>16.134246575300001</v>
       </c>
     </row>
-    <row r="70" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>473</v>
+      </c>
       <c r="C70" s="1">
         <v>3415</v>
       </c>
@@ -6513,7 +6954,13 @@
         <v>16.967123287700002</v>
       </c>
     </row>
-    <row r="71" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>474</v>
+      </c>
       <c r="C71" s="1">
         <v>3395</v>
       </c>
@@ -6578,7 +7025,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="72" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>472</v>
+      </c>
       <c r="C72" s="1">
         <v>2747</v>
       </c>
@@ -6646,7 +7099,13 @@
         <v>36.0383561644</v>
       </c>
     </row>
-    <row r="73" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>472</v>
+      </c>
       <c r="C73" s="1">
         <v>2723</v>
       </c>
@@ -6711,7 +7170,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="74" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>474</v>
+      </c>
       <c r="C74" s="1">
         <v>3164</v>
       </c>
@@ -6779,7 +7244,13 @@
         <v>35.071232876700002</v>
       </c>
     </row>
-    <row r="75" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>478</v>
+      </c>
       <c r="C75" s="1">
         <v>4578</v>
       </c>
@@ -6850,7 +7321,13 @@
         <v>40.832876712299999</v>
       </c>
     </row>
-    <row r="76" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>475</v>
+      </c>
       <c r="C76" s="1">
         <v>3014</v>
       </c>
@@ -6915,7 +7392,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="77" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>477</v>
+      </c>
       <c r="C77" s="1">
         <v>472</v>
       </c>
@@ -6980,7 +7463,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="78" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>477</v>
+      </c>
       <c r="C78" s="1">
         <v>389</v>
       </c>
@@ -7048,7 +7537,13 @@
         <v>34.679452054800002</v>
       </c>
     </row>
-    <row r="79" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>477</v>
+      </c>
       <c r="C79" s="1">
         <v>373</v>
       </c>
@@ -7113,7 +7608,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="80" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>477</v>
+      </c>
       <c r="C80" s="1">
         <v>382</v>
       </c>
@@ -7178,7 +7679,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>477</v>
+      </c>
       <c r="C81" s="1">
         <v>307</v>
       </c>
@@ -7243,7 +7750,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>477</v>
+      </c>
       <c r="C82" s="1">
         <v>450</v>
       </c>
@@ -7308,7 +7821,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>477</v>
+      </c>
       <c r="C83" s="1">
         <v>3387</v>
       </c>
@@ -7376,7 +7895,13 @@
         <v>13.882191780799999</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>477</v>
+      </c>
       <c r="C84" s="1">
         <v>3366</v>
       </c>
@@ -7441,7 +7966,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>477</v>
+      </c>
       <c r="C85" s="1">
         <v>3015</v>
       </c>
@@ -7506,7 +8037,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>482</v>
+      </c>
       <c r="C86" s="1">
         <v>2221</v>
       </c>
@@ -7574,7 +8111,13 @@
         <v>39.526027397299998</v>
       </c>
     </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>476</v>
+      </c>
       <c r="C87" s="1">
         <v>617</v>
       </c>
@@ -7639,7 +8182,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>476</v>
+      </c>
       <c r="C88" s="1">
         <v>603</v>
       </c>
@@ -7704,7 +8253,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>476</v>
+      </c>
       <c r="C89" s="1">
         <v>448</v>
       </c>
@@ -7769,7 +8324,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>476</v>
+      </c>
       <c r="C90" s="1">
         <v>521</v>
       </c>
@@ -7834,7 +8395,13 @@
         <v>41.657534246600001</v>
       </c>
     </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>476</v>
+      </c>
       <c r="C91" s="1">
         <v>2649</v>
       </c>
@@ -7899,7 +8466,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>476</v>
+      </c>
       <c r="C92" s="1">
         <v>2725</v>
       </c>
@@ -7964,7 +8537,13 @@
         <v>39.572602739700002</v>
       </c>
     </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>479</v>
+      </c>
       <c r="C93" s="1">
         <v>2740</v>
       </c>
@@ -8029,7 +8608,13 @@
         <v>39.572602739700002</v>
       </c>
     </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>476</v>
+      </c>
       <c r="C94" s="1">
         <v>3755</v>
       </c>
@@ -8094,7 +8679,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>476</v>
+      </c>
       <c r="C95" s="1">
         <v>2724</v>
       </c>
@@ -8159,7 +8750,13 @@
         <v>37.150684931500003</v>
       </c>
     </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>479</v>
+      </c>
       <c r="C96" s="1">
         <v>2992</v>
       </c>
@@ -8224,7 +8821,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>479</v>
+      </c>
       <c r="C97" s="1">
         <v>3394</v>
       </c>
@@ -8289,7 +8892,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>479</v>
+      </c>
       <c r="C98" s="1">
         <v>3186</v>
       </c>
@@ -8354,7 +8963,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>476</v>
+      </c>
       <c r="C99" s="1">
         <v>2736</v>
       </c>
@@ -8419,7 +9034,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>476</v>
+      </c>
       <c r="C100" s="1">
         <v>2729</v>
       </c>
@@ -8484,7 +9105,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>479</v>
+      </c>
       <c r="C101" s="1">
         <v>2880</v>
       </c>
@@ -8549,7 +9176,10 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>471</v>
+      </c>
       <c r="C102" s="1">
         <v>4579</v>
       </c>
@@ -8620,7 +9250,13 @@
         <v>40.794520547899999</v>
       </c>
     </row>
-    <row r="103" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>480</v>
+      </c>
       <c r="C103" s="1">
         <v>3379</v>
       </c>
@@ -8685,7 +9321,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="104" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>479</v>
+      </c>
       <c r="C104" s="1">
         <v>3003</v>
       </c>
@@ -8750,7 +9392,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="105" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>480</v>
+      </c>
       <c r="C105" s="1">
         <v>3381</v>
       </c>
@@ -8815,7 +9463,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="106" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>481</v>
+      </c>
       <c r="C106" s="1">
         <v>384</v>
       </c>
@@ -8880,7 +9534,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="107" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>479</v>
+      </c>
       <c r="C107" s="1">
         <v>3441</v>
       </c>
@@ -8945,7 +9605,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="108" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>482</v>
+      </c>
       <c r="C108" s="1">
         <v>485</v>
       </c>
@@ -9010,7 +9676,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="109" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>480</v>
+      </c>
       <c r="C109" s="1">
         <v>3382</v>
       </c>
@@ -9075,7 +9747,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="110" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>479</v>
+      </c>
       <c r="C110" s="1">
         <v>3016</v>
       </c>
@@ -9140,7 +9818,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="111" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>482</v>
+      </c>
       <c r="C111" s="1">
         <v>462</v>
       </c>
@@ -9205,7 +9889,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="112" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>480</v>
+      </c>
       <c r="C112" s="1">
         <v>3383</v>
       </c>
@@ -9270,7 +9960,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="113" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>481</v>
+      </c>
       <c r="C113" s="1">
         <v>3475</v>
       </c>
@@ -9335,7 +10031,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="114" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>480</v>
+      </c>
       <c r="C114" s="1">
         <v>2674</v>
       </c>
@@ -9403,7 +10105,13 @@
         <v>39.526027397299998</v>
       </c>
     </row>
-    <row r="115" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>479</v>
+      </c>
       <c r="C115" s="1">
         <v>3012</v>
       </c>
@@ -9468,7 +10176,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="116" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>482</v>
+      </c>
       <c r="C116" s="1">
         <v>484</v>
       </c>
@@ -9533,7 +10247,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="117" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>481</v>
+      </c>
       <c r="C117" s="1">
         <v>390</v>
       </c>
@@ -9601,7 +10321,13 @@
         <v>22.139726027399998</v>
       </c>
     </row>
-    <row r="118" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>481</v>
+      </c>
       <c r="C118" s="1">
         <v>1965</v>
       </c>
@@ -9669,7 +10395,13 @@
         <v>39.526027397299998</v>
       </c>
     </row>
-    <row r="119" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>480</v>
+      </c>
       <c r="C119" s="1">
         <v>3380</v>
       </c>
@@ -9737,7 +10469,13 @@
         <v>39.526027397299998</v>
       </c>
     </row>
-    <row r="120" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>481</v>
+      </c>
       <c r="C120" s="1">
         <v>3474</v>
       </c>
@@ -9802,7 +10540,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="121" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>480</v>
+      </c>
       <c r="C121" s="1">
         <v>3152</v>
       </c>
@@ -9867,7 +10611,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="122" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>482</v>
+      </c>
       <c r="C122" s="1">
         <v>461</v>
       </c>
@@ -9932,7 +10682,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="123" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>481</v>
+      </c>
       <c r="C123" s="1">
         <v>385</v>
       </c>
@@ -10000,7 +10756,13 @@
         <v>22.139726027399998</v>
       </c>
     </row>
-    <row r="124" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>482</v>
+      </c>
       <c r="C124" s="1">
         <v>467</v>
       </c>
@@ -10065,7 +10827,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="125" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>481</v>
+      </c>
       <c r="C125" s="1">
         <v>392</v>
       </c>
@@ -10133,7 +10901,13 @@
         <v>29.482191780800001</v>
       </c>
     </row>
-    <row r="126" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>481</v>
+      </c>
       <c r="C126" s="1">
         <v>381</v>
       </c>
@@ -10198,7 +10972,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="127" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>480</v>
+      </c>
       <c r="C127" s="1">
         <v>3367</v>
       </c>
@@ -10263,7 +11043,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="128" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>481</v>
+      </c>
       <c r="C128" s="1">
         <v>2009</v>
       </c>
@@ -10331,7 +11117,13 @@
         <v>35.323287671199999</v>
       </c>
     </row>
-    <row r="129" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>479</v>
+      </c>
       <c r="C129" s="1">
         <v>3430</v>
       </c>
@@ -10396,7 +11188,13 @@
         <v>37.150684931500003</v>
       </c>
     </row>
-    <row r="130" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>480</v>
+      </c>
       <c r="C130" s="1">
         <v>3391</v>
       </c>
@@ -10464,7 +11262,13 @@
         <v>10.293150684900001</v>
       </c>
     </row>
-    <row r="131" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>480</v>
+      </c>
       <c r="C131" s="1">
         <v>3150</v>
       </c>
@@ -10529,7 +11333,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="132" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A132" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>481</v>
+      </c>
       <c r="C132" s="1">
         <v>393</v>
       </c>
@@ -10597,7 +11407,10 @@
         <v>39.526027397299998</v>
       </c>
     </row>
-    <row r="133" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
+        <v>471</v>
+      </c>
       <c r="C133" s="1">
         <v>230</v>
       </c>
@@ -10662,7 +11475,10 @@
         <v>15.8602739726</v>
       </c>
     </row>
-    <row r="134" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
+        <v>471</v>
+      </c>
       <c r="C134" s="1">
         <v>193</v>
       </c>
@@ -10727,7 +11543,13 @@
         <v>13.257534246600001</v>
       </c>
     </row>
-    <row r="135" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>488</v>
+      </c>
       <c r="C135" s="1">
         <v>3361</v>
       </c>
@@ -10795,7 +11617,13 @@
         <v>30.473972602700002</v>
       </c>
     </row>
-    <row r="136" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A136" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>488</v>
+      </c>
       <c r="C136" s="1">
         <v>3230</v>
       </c>
@@ -10860,7 +11688,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="137" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>488</v>
+      </c>
       <c r="C137" s="1">
         <v>4415</v>
       </c>
@@ -10925,7 +11759,13 @@
         <v>42.027397260299999</v>
       </c>
     </row>
-    <row r="138" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A138" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>488</v>
+      </c>
       <c r="C138" s="1">
         <v>541</v>
       </c>
@@ -10993,7 +11833,13 @@
         <v>32.956164383599997</v>
       </c>
     </row>
-    <row r="139" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A139" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>488</v>
+      </c>
       <c r="C139" s="1">
         <v>3356</v>
       </c>
@@ -11061,7 +11907,13 @@
         <v>38.556164383599999</v>
       </c>
     </row>
-    <row r="140" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A140" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>488</v>
+      </c>
       <c r="C140" s="1">
         <v>3429</v>
       </c>
@@ -11142,7 +11994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109CF5FC-55A8-49B5-828A-7E64E94B90C0}">
   <dimension ref="A1:Z43"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -11182,10 +12034,10 @@
         <v>465</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -11262,10 +12114,10 @@
         <v>466</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="D2" s="1">
         <v>3708</v>
@@ -11340,10 +12192,10 @@
         <v>466</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="D3" s="1">
         <v>2562</v>
@@ -11415,10 +12267,10 @@
         <v>466</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="D4" s="1">
         <v>351</v>
@@ -11490,10 +12342,10 @@
         <v>466</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="D5" s="1">
         <v>3941</v>
@@ -11568,10 +12420,10 @@
         <v>466</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="D6" s="1">
         <v>3175</v>
@@ -11643,10 +12495,10 @@
         <v>466</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="D7" s="1">
         <v>3198</v>
@@ -11721,10 +12573,10 @@
         <v>466</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="D8" s="1">
         <v>3166</v>
@@ -11796,10 +12648,10 @@
         <v>466</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="D9" s="1">
         <v>4445</v>
@@ -11874,10 +12726,10 @@
         <v>466</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="D10" s="1">
         <v>2753</v>
@@ -11946,7 +12798,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D11" s="1">
         <v>4577</v>
@@ -12020,7 +12872,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D12" s="1">
         <v>217</v>
@@ -12089,7 +12941,7 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D13" s="1">
         <v>306</v>
@@ -12158,7 +13010,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D14" s="1">
         <v>3546</v>
@@ -12235,10 +13087,10 @@
         <v>466</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="D15" s="1">
         <v>4047</v>
@@ -12310,10 +13162,10 @@
         <v>466</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="D16" s="1">
         <v>2938</v>
@@ -12385,10 +13237,10 @@
         <v>466</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="D17" s="1">
         <v>3193</v>
@@ -12460,10 +13312,10 @@
         <v>466</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="D18" s="1">
         <v>2894</v>
@@ -12532,7 +13384,7 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D19" s="1">
         <v>229</v>
@@ -12604,10 +13456,10 @@
         <v>466</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="D20" s="1">
         <v>197</v>
@@ -12679,7 +13531,7 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D21" s="1">
         <v>4578</v>
@@ -12756,10 +13608,10 @@
         <v>466</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="D22" s="1">
         <v>2928</v>
@@ -12834,10 +13686,10 @@
         <v>466</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="D23" s="1">
         <v>2657</v>
@@ -12909,7 +13761,7 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D24" s="1">
         <v>4581</v>
@@ -12983,7 +13835,7 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D25" s="1">
         <v>3701</v>
@@ -13052,7 +13904,7 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D26" s="1">
         <v>4069</v>
@@ -13124,10 +13976,10 @@
         <v>466</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="D27" s="1">
         <v>307</v>
@@ -13199,10 +14051,10 @@
         <v>466</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="D28" s="1">
         <v>3015</v>
@@ -13274,10 +14126,10 @@
         <v>466</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="D29" s="1">
         <v>2221</v>
@@ -13349,7 +14201,7 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D30" s="1">
         <v>211</v>
@@ -13421,10 +14273,10 @@
         <v>466</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="D31" s="1">
         <v>202</v>
@@ -13496,10 +14348,10 @@
         <v>466</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D32" s="1">
         <v>3755</v>
@@ -13571,10 +14423,10 @@
         <v>466</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D33" s="1">
         <v>2724</v>
@@ -13643,7 +14495,7 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D34" s="1">
         <v>195</v>
@@ -13712,7 +14564,7 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D35" s="1">
         <v>4579</v>
@@ -13789,10 +14641,10 @@
         <v>466</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D36" s="1">
         <v>3391</v>
@@ -13867,10 +14719,10 @@
         <v>466</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D37" s="1">
         <v>3150</v>
@@ -13942,10 +14794,10 @@
         <v>466</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D38" s="1">
         <v>393</v>
@@ -14017,7 +14869,7 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D39" s="1">
         <v>3371</v>
@@ -14089,7 +14941,7 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D40" s="1">
         <v>3377</v>
@@ -14161,7 +15013,7 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D41" s="1">
         <v>230</v>
@@ -14230,7 +15082,7 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D42" s="1">
         <v>193</v>
@@ -14299,7 +15151,7 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D43" s="1">
         <v>4580</v>
@@ -14386,7 +15238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924613BC-B524-478A-BE21-080315A5EDA5}">
   <dimension ref="A1:Y42"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -14500,7 +15352,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C2" s="1">
         <v>3708</v>
@@ -14571,7 +15423,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C3" s="1">
         <v>2562</v>
@@ -14639,7 +15491,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C4" s="1">
         <v>351</v>
@@ -14707,7 +15559,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C5" s="1">
         <v>3941</v>
@@ -14778,7 +15630,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C6" s="1">
         <v>3701</v>
@@ -14846,7 +15698,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C7" s="1">
         <v>3175</v>
@@ -14914,7 +15766,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C8" s="1">
         <v>3198</v>
@@ -14985,7 +15837,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C9" s="1">
         <v>3166</v>
@@ -15053,7 +15905,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C10" s="1">
         <v>4445</v>
@@ -15124,7 +15976,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C11" s="1">
         <v>2753</v>
@@ -15192,7 +16044,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C12" s="1">
         <v>4577</v>
@@ -15266,7 +16118,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C13" s="1">
         <v>217</v>
@@ -15334,7 +16186,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C14" s="1">
         <v>306</v>
@@ -15402,7 +16254,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C15" s="1">
         <v>3546</v>
@@ -15476,7 +16328,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C16" s="1">
         <v>2938</v>
@@ -15544,7 +16396,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C17" s="1">
         <v>3193</v>
@@ -15612,7 +16464,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C18" s="1">
         <v>2894</v>
@@ -15680,7 +16532,7 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C19" s="1">
         <v>229</v>
@@ -15748,7 +16600,7 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C20" s="1">
         <v>197</v>
@@ -15819,7 +16671,7 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C21" s="1">
         <v>4578</v>
@@ -15893,7 +16745,7 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C22" s="1">
         <v>2928</v>
@@ -15964,7 +16816,7 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C23" s="1">
         <v>2657</v>
@@ -16035,7 +16887,7 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C24" s="1">
         <v>4581</v>
@@ -16109,7 +16961,7 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C25" s="1">
         <v>4069</v>
@@ -16177,7 +17029,7 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C26" s="1">
         <v>307</v>
@@ -16245,7 +17097,7 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C27" s="1">
         <v>3015</v>
@@ -16313,7 +17165,7 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C28" s="1">
         <v>2221</v>
@@ -16384,7 +17236,7 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C29" s="1">
         <v>211</v>
@@ -16452,7 +17304,7 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C30" s="1">
         <v>202</v>
@@ -16520,7 +17372,7 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C31" s="1">
         <v>3755</v>
@@ -16588,7 +17440,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C32" s="1">
         <v>2724</v>
@@ -16656,7 +17508,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C33" s="1">
         <v>195</v>
@@ -16724,7 +17576,7 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C34" s="1">
         <v>4579</v>
@@ -16798,7 +17650,7 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C35" s="1">
         <v>3391</v>
@@ -16869,7 +17721,7 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C36" s="1">
         <v>3150</v>
@@ -16937,7 +17789,7 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C37" s="1">
         <v>393</v>
@@ -17008,7 +17860,7 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C38" s="1">
         <v>3371</v>
@@ -17079,7 +17931,7 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C39" s="1">
         <v>3377</v>
@@ -17150,7 +18002,7 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C40" s="1">
         <v>230</v>
@@ -17221,7 +18073,7 @@
         <v>466</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="C41" s="1">
         <v>193</v>
@@ -17289,7 +18141,7 @@
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C42" s="1">
         <v>4580</v>
@@ -17377,7 +18229,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Y66"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -17494,7 +18346,7 @@
         <v>466</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="C2" s="1">
         <v>520</v>
@@ -17565,7 +18417,7 @@
         <v>466</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="C3" s="1">
         <v>434</v>
@@ -17636,7 +18488,7 @@
         <v>466</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="C4" s="1">
         <v>3448</v>
@@ -17704,7 +18556,7 @@
     </row>
     <row r="5" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C5" s="1">
         <v>4246</v>
@@ -17775,7 +18627,7 @@
         <v>466</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="C6" s="1">
         <v>50</v>
@@ -17846,7 +18698,7 @@
         <v>466</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="C7" s="1">
         <v>47</v>
@@ -17917,7 +18769,7 @@
         <v>466</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="C8" s="1">
         <v>2945</v>
@@ -17988,7 +18840,7 @@
         <v>466</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="C9" s="1">
         <v>421</v>
@@ -18059,7 +18911,7 @@
         <v>466</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="C10" s="1">
         <v>4258</v>
@@ -18127,7 +18979,7 @@
     </row>
     <row r="11" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C11" s="1">
         <v>3235</v>
@@ -18201,7 +19053,7 @@
         <v>466</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="C12" s="1">
         <v>3473</v>
@@ -18272,7 +19124,7 @@
         <v>466</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="C13" s="1">
         <v>3216</v>
@@ -18340,7 +19192,7 @@
     </row>
     <row r="14" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C14" s="1">
         <v>3422</v>
@@ -18411,7 +19263,7 @@
         <v>466</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="C15" s="1">
         <v>613</v>
@@ -18479,7 +19331,7 @@
     </row>
     <row r="16" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C16" s="1">
         <v>605</v>
@@ -18550,7 +19402,7 @@
         <v>466</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="C17" s="1">
         <v>2650</v>
@@ -18621,7 +19473,7 @@
     </row>
     <row r="18" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C18" s="1">
         <v>533</v>
@@ -18692,7 +19544,7 @@
         <v>466</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="C19" s="1">
         <v>3071</v>
@@ -18763,7 +19615,7 @@
         <v>466</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="C20" s="1">
         <v>2596</v>
@@ -18837,7 +19689,7 @@
         <v>466</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="C21" s="1">
         <v>3384</v>
@@ -18908,7 +19760,7 @@
         <v>466</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="C22" s="1">
         <v>3019</v>
@@ -18982,7 +19834,7 @@
         <v>466</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="C23" s="1">
         <v>3154</v>
@@ -19053,7 +19905,7 @@
         <v>466</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="C24" s="1">
         <v>2932</v>
@@ -19124,7 +19976,7 @@
         <v>466</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="C25" s="1">
         <v>3412</v>
@@ -19195,7 +20047,7 @@
         <v>466</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="C26" s="1">
         <v>2895</v>
@@ -19266,7 +20118,7 @@
         <v>466</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="C27" s="1">
         <v>2727</v>
@@ -19337,7 +20189,7 @@
         <v>466</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="C28" s="1">
         <v>4472</v>
@@ -19411,7 +20263,7 @@
         <v>466</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="C29" s="1">
         <v>3192</v>
@@ -19482,7 +20334,7 @@
         <v>466</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="C30" s="1">
         <v>3174</v>
@@ -19553,7 +20405,7 @@
         <v>466</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="C31" s="1">
         <v>1256</v>
@@ -19624,7 +20476,7 @@
         <v>466</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="C32" s="1">
         <v>2937</v>
@@ -19695,7 +20547,7 @@
         <v>466</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="C33" s="1">
         <v>3409</v>
@@ -19766,7 +20618,7 @@
         <v>466</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="C34" s="1">
         <v>2722</v>
@@ -19837,7 +20689,7 @@
         <v>466</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="C35" s="1">
         <v>3072</v>
@@ -19908,7 +20760,7 @@
         <v>466</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="C36" s="1">
         <v>3446</v>
@@ -19976,7 +20828,7 @@
     </row>
     <row r="37" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C37" s="1">
         <v>2939</v>
@@ -20047,7 +20899,7 @@
         <v>466</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="C38" s="1">
         <v>3084</v>
@@ -20118,7 +20970,7 @@
         <v>466</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="C39" s="1">
         <v>3956</v>
@@ -20192,7 +21044,7 @@
         <v>466</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="C40" s="1">
         <v>194</v>
@@ -20263,7 +21115,7 @@
         <v>466</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="C41" s="1">
         <v>471</v>
@@ -20334,7 +21186,7 @@
         <v>466</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="C42" s="1">
         <v>480</v>
@@ -20405,7 +21257,7 @@
         <v>466</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="C43" s="1">
         <v>466</v>
@@ -20476,7 +21328,7 @@
         <v>466</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="C44" s="1">
         <v>478</v>
@@ -20547,7 +21399,7 @@
         <v>466</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="C45" s="1">
         <v>464</v>
@@ -20618,7 +21470,7 @@
         <v>466</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="C46" s="1">
         <v>241</v>
@@ -20689,7 +21541,7 @@
         <v>466</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="C47" s="1">
         <v>395</v>
@@ -20760,7 +21612,7 @@
         <v>466</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="C48" s="1">
         <v>4328</v>
@@ -20831,7 +21683,7 @@
         <v>466</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="C49" s="1">
         <v>192</v>
@@ -20899,7 +21751,7 @@
     </row>
     <row r="50" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C50" s="1">
         <v>532</v>
@@ -20967,7 +21819,7 @@
     </row>
     <row r="51" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C51" s="1">
         <v>516</v>
@@ -21038,7 +21890,7 @@
         <v>466</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="C52" s="1">
         <v>3176</v>
@@ -21109,7 +21961,7 @@
         <v>466</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="C53" s="1">
         <v>2908</v>
@@ -21180,7 +22032,7 @@
         <v>466</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="C54" s="1">
         <v>3368</v>
@@ -21251,7 +22103,7 @@
         <v>466</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="C55" s="1">
         <v>396</v>
@@ -21322,7 +22174,7 @@
         <v>466</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="C56" s="1">
         <v>374</v>
@@ -21393,7 +22245,7 @@
         <v>466</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="C57" s="1">
         <v>2997</v>
@@ -21464,7 +22316,7 @@
         <v>466</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="C58" s="1">
         <v>463</v>
@@ -21535,7 +22387,7 @@
         <v>466</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="C59" s="1">
         <v>3001</v>
@@ -21606,7 +22458,7 @@
         <v>466</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="C60" s="1">
         <v>3364</v>
@@ -21677,7 +22529,7 @@
         <v>466</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="C61" s="1">
         <v>3011</v>
@@ -21748,7 +22600,7 @@
         <v>466</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="C62" s="1">
         <v>380</v>
@@ -21819,7 +22671,7 @@
         <v>466</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="C63" s="1">
         <v>3351</v>
@@ -21890,7 +22742,7 @@
         <v>466</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="C64" s="1">
         <v>3967</v>
@@ -21964,7 +22816,7 @@
         <v>466</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="C65" s="1">
         <v>3787</v>
@@ -22035,7 +22887,7 @@
         <v>466</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="C66" s="1">
         <v>2952</v>

--- a/.datasets/IDEAM/CNEStationDatasetDownload.xlsx
+++ b/.datasets/IDEAM/CNEStationDatasetDownload.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.LTWB\.datasets\IDEAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E85E9D7-9CE3-46FC-894D-6CBD4D7B97E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5469F0-7346-46A1-A6E6-FD2025F4FF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26820" yWindow="1770" windowWidth="25620" windowHeight="8265" tabRatio="693" activeTab="3" xr2:uid="{A0568F04-DB89-4E32-835D-4141C8FDD13B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="693" xr2:uid="{A0568F04-DB89-4E32-835D-4141C8FDD13B}"/>
   </bookViews>
   <sheets>
     <sheet name="Precipitacion" sheetId="1" r:id="rId1"/>
@@ -1907,9 +1907,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BF7089-3989-48DA-9543-7EA7C591111E}">
   <dimension ref="A1:Y140"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18229,9 +18229,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Y66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
